--- a/adonis.byspecies.xlsx
+++ b/adonis.byspecies.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M9" sqref="M8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1311,5 +1311,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>